--- a/ESP/data/supervision.xlsx
+++ b/ESP/data/supervision.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Documentos (CC etc)\CV\CV R\JDL_CV-master\ESP\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV-master\ESP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B028DDB2-1304-4519-ADA3-3FAB60513C25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94A92F5-1D52-4922-AF45-5389A3331A08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="supervision" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>what</t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t>2019 - 2020</t>
+  </si>
+  <si>
+    <t>Danny Ferley Gaitan Rodríguez (2019 - 2020)</t>
+  </si>
+  <si>
+    <t>Hasbleidy Gamboa Ordoñez (2019 - 2020)</t>
   </si>
 </sst>
 </file>
@@ -645,48 +651,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -702,7 +708,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -998,22 +1004,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="137.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="137.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1030,7 +1036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1047,7 +1053,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1061,7 +1067,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1075,7 +1081,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1089,7 +1095,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1106,84 +1112,94 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E9" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E10" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E11" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E12" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E13" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E14" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E15" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>39</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
         <v>40</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D19" t="s">
         <v>7</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E18" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
         <v>8</v>
       </c>
     </row>

--- a/ESP/data/supervision.xlsx
+++ b/ESP/data/supervision.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV-master\ESP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94A92F5-1D52-4922-AF45-5389A3331A08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00696B60-9D12-4DD3-B788-191210C2CF80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25290" yWindow="3510" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="supervision" sheetId="1" r:id="rId1"/>
@@ -40,12 +40,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Universidad El Bosque</t>
-  </si>
-  <si>
-    <t>Universidad Pedagógica Nacional</t>
-  </si>
-  <si>
     <t>Juan Felipe Pérez Ariza (2017 - 2019).</t>
   </si>
   <si>
@@ -121,12 +115,6 @@
     <t>Universidad de Valencia, España</t>
   </si>
   <si>
-    <t>University of East London, Reino Unido</t>
-  </si>
-  <si>
-    <t>University of Stirling, Reino Unido</t>
-  </si>
-  <si>
     <t>Milena Vásquez-Amézquita. Supervisión conjunta con  Alicia Salvador.</t>
   </si>
   <si>
@@ -155,6 +143,18 @@
   </si>
   <si>
     <t>Hasbleidy Gamboa Ordoñez (2019 - 2020)</t>
+  </si>
+  <si>
+    <t>Universidad El Bosque, Colombia</t>
+  </si>
+  <si>
+    <t>Universidad Pedagógica Nacional, Colombia</t>
+  </si>
+  <si>
+    <t>University of Stirling, Inglaterra</t>
+  </si>
+  <si>
+    <t>University of East London, Inglaterra</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +1007,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E8"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,93 +1038,93 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1132,75 +1132,75 @@
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
         <v>7</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/ESP/data/supervision.xlsx
+++ b/ESP/data/supervision.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV-master\ESP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00696B60-9D12-4DD3-B788-191210C2CF80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59496E02-A3F2-4803-BB89-94F6863BD4E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25290" yWindow="3510" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="supervision" sheetId="1" r:id="rId1"/>
@@ -151,10 +151,10 @@
     <t>Universidad Pedagógica Nacional, Colombia</t>
   </si>
   <si>
-    <t>University of Stirling, Inglaterra</t>
-  </si>
-  <si>
-    <t>University of East London, Inglaterra</t>
+    <t>University of East London, UK</t>
+  </si>
+  <si>
+    <t>University of Stirling, UK</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +1007,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,7 +1061,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
         <v>32</v>
@@ -1075,7 +1075,7 @@
         <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
         <v>33</v>

--- a/ESP/data/supervision.xlsx
+++ b/ESP/data/supervision.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV-master\ESP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59496E02-A3F2-4803-BB89-94F6863BD4E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42725129-045E-48FB-B03A-EB8994E56836}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="supervision" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>what</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>University of Stirling, UK</t>
+  </si>
+  <si>
+    <t>Maria Paula Moreno Rodríguez (2019 - 2021)</t>
+  </si>
+  <si>
+    <t>Andrés Felipe Orozco Serrato (2020 - 2021)</t>
   </si>
 </sst>
 </file>
@@ -1004,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,92 +1120,102 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
         <v>35</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D20" t="s">
         <v>41</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>36</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D21" t="s">
         <v>42</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E20" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
         <v>6</v>
       </c>
     </row>

--- a/ESP/data/supervision.xlsx
+++ b/ESP/data/supervision.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV-master\ESP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42725129-045E-48FB-B03A-EB8994E56836}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FA7149-7ABE-4599-A5DA-8E340BF99866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="supervision" sheetId="1" r:id="rId1"/>
@@ -40,42 +40,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Juan Felipe Pérez Ariza (2017 - 2019).</t>
-  </si>
-  <si>
-    <t>Natalia Elízabeth Moreno Buitrago (2017 - 2019).</t>
-  </si>
-  <si>
-    <t>Maria Alejandra Abello Mozo  (2018 - 2018).</t>
-  </si>
-  <si>
-    <t>Haydn Ricardo Roldán Morales (2015 - 2016).</t>
-  </si>
-  <si>
-    <t>Cindy Paola Moncada Gómez (2016 - 2017).</t>
-  </si>
-  <si>
-    <t>Laura Milena Estupiñan Aldana  (2016 - 2017).</t>
-  </si>
-  <si>
-    <t>Vanesa Díaz Güiza  (2016 - 2018).</t>
-  </si>
-  <si>
-    <t>Lina María Morales Sánchez (2016 - 2017).</t>
-  </si>
-  <si>
-    <t>Angie Liliana Pérez Rodríguez  (2016 - 2018).</t>
-  </si>
-  <si>
-    <t>Lina María García Hoyos  (2016 - 2017).</t>
-  </si>
-  <si>
-    <t>Ana Sofía Gómez Castelblanco (2018 - 2019).</t>
-  </si>
-  <si>
-    <t>Paula Andrea Betancourt Velandia  (2018 - 2019).</t>
-  </si>
-  <si>
     <t>Psicología</t>
   </si>
   <si>
@@ -115,18 +79,6 @@
     <t>Universidad de Valencia, España</t>
   </si>
   <si>
-    <t>Milena Vásquez-Amézquita. Supervisión conjunta con  Alicia Salvador.</t>
-  </si>
-  <si>
-    <t>Francisco Javier Flores. Supervisión conjunta con Lisa Chiara Fellin.</t>
-  </si>
-  <si>
-    <t>Julia Sanz-Vidania. Supervisión conjunta con S. Craig Roberts.</t>
-  </si>
-  <si>
-    <t>Adrián Acosta Guerrero. Supervisión conjunta con Milena Vásquez-Amézquita.</t>
-  </si>
-  <si>
     <t>2017 - 2018</t>
   </si>
   <si>
@@ -161,6 +113,54 @@
   </si>
   <si>
     <t>Andrés Felipe Orozco Serrato (2020 - 2021)</t>
+  </si>
+  <si>
+    <t>Paula Andrea Betancourt Velandia  (2018 - 2019)</t>
+  </si>
+  <si>
+    <t>Ana Sofía Gómez Castelblanco (2018 - 2019)</t>
+  </si>
+  <si>
+    <t>Lina María García Hoyos  (2016 - 2017)</t>
+  </si>
+  <si>
+    <t>Angie Liliana Pérez Rodríguez  (2016 - 2018)</t>
+  </si>
+  <si>
+    <t>Lina María Morales Sánchez (2016 - 2017)</t>
+  </si>
+  <si>
+    <t>Laura Milena Estupiñan Aldana  (2016 - 2017)</t>
+  </si>
+  <si>
+    <t>Vanesa Díaz Güiza  (2016 - 2018)</t>
+  </si>
+  <si>
+    <t>Cindy Paola Moncada Gómez (2016 - 2017)</t>
+  </si>
+  <si>
+    <t>Haydn Ricardo Roldán Morales (2015 - 2016)</t>
+  </si>
+  <si>
+    <t>Maria Alejandra Abello Mozo  (2018 - 2018)</t>
+  </si>
+  <si>
+    <t>Natalia Elízabeth Moreno Buitrago (2017 - 2019)</t>
+  </si>
+  <si>
+    <t>Juan Felipe Pérez Ariza (2017 - 2019)</t>
+  </si>
+  <si>
+    <t>Milena Vásquez-Amézquita. Supervisión conjunta con  Alicia Salvador</t>
+  </si>
+  <si>
+    <t>Francisco Javier Flores. Supervisión conjunta con Lisa Chiara Fellin</t>
+  </si>
+  <si>
+    <t>Julia Sanz-Vidania. Supervisión conjunta con S Craig Roberts</t>
+  </si>
+  <si>
+    <t>Adrián Acosta Guerrero. Supervisión conjunta con Milena Vásquez-Amézquita</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1013,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD8"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,103 +1044,103 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1148,75 +1148,75 @@
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>36</v>
-      </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/ESP/data/supervision.xlsx
+++ b/ESP/data/supervision.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV-master\ESP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FA7149-7ABE-4599-A5DA-8E340BF99866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E467CA-059B-420E-A994-6B0A3751D73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="supervision" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>what</t>
   </si>
@@ -161,6 +161,18 @@
   </si>
   <si>
     <t>Adrián Acosta Guerrero. Supervisión conjunta con Milena Vásquez-Amézquita</t>
+  </si>
+  <si>
+    <t>Angie Alejandra Lozano Sanjuan (2021 - 2022)</t>
+  </si>
+  <si>
+    <t>Daniela Martínez Franco (2021 - 2022)</t>
+  </si>
+  <si>
+    <t>Mariana Saavedra Botero (2021 - 2022)</t>
+  </si>
+  <si>
+    <t>John Jairo Rubio (2021 - 2022)</t>
   </si>
 </sst>
 </file>
@@ -1010,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,120 +1115,140 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E17" t="s">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E18" t="s">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
